--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangi\OneDrive\문서\ALDrive\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FDFBDC-DF58-4547-A5E3-F2AC56EE26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C73C122-4DB1-4F21-B599-DB2063048229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65989A62-DD22-4017-B1F4-9BE3BB514C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>일   자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,30 @@
   </si>
   <si>
     <t>어수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤태순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임석준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고명수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장우석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강기서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,35 +1399,11 @@
     <xf numFmtId="176" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1417,6 +1417,21 @@
     <xf numFmtId="176" fontId="0" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,11 +1450,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC16636-847A-47F1-BA3B-A88365FF7E52}">
   <dimension ref="B1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W54" sqref="W54"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1806,45 +1824,45 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
       <c r="U2" s="49"/>
     </row>
     <row r="3" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:25" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="2:25" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:25" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1872,12 +1890,12 @@
       <c r="J6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
       <c r="T6"/>
       <c r="Y6"/>
     </row>
@@ -1885,7 +1903,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="31" t="s">
@@ -1897,7 +1915,7 @@
       <c r="G7" s="3">
         <v>38</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="59">
         <v>46034</v>
       </c>
       <c r="I7" s="31" t="s">
@@ -2017,7 +2035,7 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="62">
         <v>46023</v>
       </c>
       <c r="D11" s="34" t="s">
@@ -2052,7 +2070,7 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="34" t="s">
         <v>36</v>
       </c>
@@ -2076,7 +2094,7 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="34" t="s">
         <v>21</v>
       </c>
@@ -2086,7 +2104,7 @@
       <c r="G13" s="3">
         <v>44</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="62">
         <v>46035</v>
       </c>
       <c r="I13" s="34" t="s">
@@ -2095,10 +2113,10 @@
       <c r="J13" s="32">
         <v>5</v>
       </c>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="71"/>
+      <c r="M13" s="68"/>
       <c r="N13" s="18" t="s">
         <v>14</v>
       </c>
@@ -2112,7 +2130,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="34" t="s">
         <v>22</v>
       </c>
@@ -2122,7 +2140,7 @@
       <c r="G14" s="3">
         <v>45</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="34" t="s">
         <v>61</v>
       </c>
@@ -2130,13 +2148,13 @@
         <v>5</v>
       </c>
       <c r="K14" s="51"/>
-      <c r="L14" s="72" t="s">
+      <c r="L14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="73"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="25">
         <f>E44+J44</f>
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="O14" s="15"/>
       <c r="T14"/>
@@ -2146,7 +2164,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="34" t="s">
         <v>23</v>
       </c>
@@ -2156,17 +2174,17 @@
       <c r="G15" s="3">
         <v>46</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="34" t="s">
         <v>62</v>
       </c>
       <c r="J15" s="32">
         <v>5</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="73"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="26">
         <f>N11</f>
         <v>1000</v>
@@ -2179,7 +2197,7 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="34" t="s">
         <v>24</v>
       </c>
@@ -2189,7 +2207,7 @@
       <c r="G16" s="3">
         <v>47</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="62">
         <v>46036</v>
       </c>
       <c r="I16" s="34" t="s">
@@ -2198,13 +2216,13 @@
       <c r="J16" s="32">
         <v>5</v>
       </c>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="63"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="27">
         <f>SUM(N14:N15)</f>
-        <v>1292</v>
+        <v>1322</v>
       </c>
       <c r="O16" s="17" t="s">
         <v>70</v>
@@ -2216,7 +2234,7 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="62">
         <v>46024</v>
       </c>
       <c r="D17" s="34" t="s">
@@ -2228,7 +2246,7 @@
       <c r="G17" s="3">
         <v>48</v>
       </c>
-      <c r="H17" s="57"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="34" t="s">
         <v>64</v>
       </c>
@@ -2242,7 +2260,7 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="34" t="s">
         <v>26</v>
       </c>
@@ -2252,7 +2270,7 @@
       <c r="G18" s="3">
         <v>49</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="34" t="s">
         <v>65</v>
       </c>
@@ -2267,7 +2285,7 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="34" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2295,7 @@
       <c r="G19" s="3">
         <v>50</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="62">
         <v>46038</v>
       </c>
       <c r="I19" s="34" t="s">
@@ -2293,7 +2311,7 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="35" t="s">
         <v>28</v>
       </c>
@@ -2303,7 +2321,7 @@
       <c r="G20" s="3">
         <v>51</v>
       </c>
-      <c r="H20" s="57"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="35" t="s">
         <v>67</v>
       </c>
@@ -2317,7 +2335,7 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="35" t="s">
         <v>35</v>
       </c>
@@ -2327,7 +2345,7 @@
       <c r="G21" s="3">
         <v>52</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="35" t="s">
         <v>68</v>
       </c>
@@ -2341,7 +2359,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="62">
         <v>46025</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -2353,7 +2371,7 @@
       <c r="G22" s="3">
         <v>53</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="54">
         <v>46043</v>
       </c>
       <c r="I22" s="35" t="s">
@@ -2369,7 +2387,7 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="35" t="s">
         <v>30</v>
       </c>
@@ -2379,7 +2397,7 @@
       <c r="G23" s="3">
         <v>54</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="54">
         <v>46045</v>
       </c>
       <c r="I23" s="35" t="s">
@@ -2396,7 +2414,7 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="35" t="s">
         <v>31</v>
       </c>
@@ -2406,7 +2424,7 @@
       <c r="G24" s="3">
         <v>55</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="54">
         <v>46048</v>
       </c>
       <c r="I24" s="35" t="s">
@@ -2422,7 +2440,7 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="35" t="s">
         <v>32</v>
       </c>
@@ -2448,7 +2466,7 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="34" t="s">
         <v>33</v>
       </c>
@@ -2458,7 +2476,7 @@
       <c r="G26" s="3">
         <v>57</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="62">
         <v>46056</v>
       </c>
       <c r="I26" s="34" t="s">
@@ -2474,7 +2492,7 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="34" t="s">
         <v>34</v>
       </c>
@@ -2484,7 +2502,7 @@
       <c r="G27" s="3">
         <v>58</v>
       </c>
-      <c r="H27" s="58"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="34" t="s">
         <v>76</v>
       </c>
@@ -2510,9 +2528,15 @@
       <c r="G28" s="3">
         <v>59</v>
       </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="36"/>
+      <c r="H28" s="52">
+        <v>46059</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="36">
+        <v>5</v>
+      </c>
       <c r="T28"/>
       <c r="Y28"/>
     </row>
@@ -2520,7 +2544,7 @@
       <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="71">
         <v>46027</v>
       </c>
       <c r="D29" s="37" t="s">
@@ -2532,9 +2556,15 @@
       <c r="G29" s="3">
         <v>60</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36"/>
+      <c r="H29" s="52">
+        <v>46060</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="36">
+        <v>5</v>
+      </c>
       <c r="T29"/>
       <c r="Y29"/>
     </row>
@@ -2552,9 +2582,15 @@
       <c r="G30" s="3">
         <v>61</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="36"/>
+      <c r="H30" s="52">
+        <v>46061</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="36">
+        <v>5</v>
+      </c>
       <c r="T30"/>
       <c r="Y30"/>
     </row>
@@ -2572,9 +2608,15 @@
       <c r="G31" s="3">
         <v>62</v>
       </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="36"/>
+      <c r="H31" s="52">
+        <v>46066</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="36">
+        <v>5</v>
+      </c>
       <c r="T31"/>
       <c r="Y31"/>
     </row>
@@ -2592,9 +2634,15 @@
       <c r="G32" s="3">
         <v>63</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="36"/>
+      <c r="H32" s="52">
+        <v>46072</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="36">
+        <v>5</v>
+      </c>
       <c r="T32"/>
       <c r="Y32"/>
     </row>
@@ -2612,9 +2660,15 @@
       <c r="G33" s="3">
         <v>64</v>
       </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="36"/>
+      <c r="H33" s="52">
+        <v>46073</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="36">
+        <v>5</v>
+      </c>
       <c r="T33"/>
       <c r="Y33"/>
     </row>
@@ -2632,7 +2686,7 @@
       <c r="G34" s="3">
         <v>65</v>
       </c>
-      <c r="H34" s="74"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="37"/>
       <c r="J34" s="36"/>
       <c r="T34"/>
@@ -2653,7 +2707,7 @@
       <c r="G35" s="3">
         <v>66</v>
       </c>
-      <c r="H35" s="75"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="37"/>
       <c r="J35" s="36"/>
       <c r="T35"/>
@@ -2663,7 +2717,7 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="71">
         <v>46028</v>
       </c>
       <c r="D36" s="37" t="s">
@@ -2675,7 +2729,7 @@
       <c r="G36" s="3">
         <v>67</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="37"/>
       <c r="J36" s="36"/>
       <c r="T36"/>
@@ -2794,7 +2848,7 @@
       <c r="B42" s="3">
         <v>36</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="71">
         <v>46029</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -2806,7 +2860,7 @@
       <c r="G42" s="3">
         <v>73</v>
       </c>
-      <c r="H42" s="59"/>
+      <c r="H42" s="71"/>
       <c r="I42" s="35"/>
       <c r="J42" s="36"/>
       <c r="K42" s="2"/>
@@ -2853,7 +2907,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="40">
         <f>SUM(J7:J43)</f>
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="K44" s="2"/>
       <c r="P44" s="2"/>
@@ -2863,6 +2917,15 @@
     <row r="45" spans="2:25" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C11:C16"/>
@@ -2875,15 +2938,6 @@
     <mergeCell ref="H7:H12"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="H16:H18"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H26:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
